--- a/natmiOut/OldD0/LR-pairs_lrc2p/App-Cd74.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/App-Cd74.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>80.9462580763919</v>
+        <v>82.83048866666665</v>
       </c>
       <c r="H2">
-        <v>80.9462580763919</v>
+        <v>248.491466</v>
       </c>
       <c r="I2">
-        <v>0.3130569481982918</v>
+        <v>0.3167437020391103</v>
       </c>
       <c r="J2">
-        <v>0.3130569481982918</v>
+        <v>0.3167437020391103</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.448763536884</v>
+        <v>97.15988866666665</v>
       </c>
       <c r="N2">
-        <v>19.448763536884</v>
+        <v>291.479666</v>
       </c>
       <c r="O2">
-        <v>0.8934716680459566</v>
+        <v>0.974735784617843</v>
       </c>
       <c r="P2">
-        <v>0.8934716680459566</v>
+        <v>0.9747357846178432</v>
       </c>
       <c r="Q2">
-        <v>1574.304632523333</v>
+        <v>8047.801057058926</v>
       </c>
       <c r="R2">
-        <v>1574.304632523333</v>
+        <v>72430.20951353034</v>
       </c>
       <c r="S2">
-        <v>0.2797075137001044</v>
+        <v>0.3087414209298525</v>
       </c>
       <c r="T2">
-        <v>0.2797075137001044</v>
+        <v>0.3087414209298526</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>80.9462580763919</v>
+        <v>82.83048866666665</v>
       </c>
       <c r="H3">
-        <v>80.9462580763919</v>
+        <v>248.491466</v>
       </c>
       <c r="I3">
-        <v>0.3130569481982918</v>
+        <v>0.3167437020391103</v>
       </c>
       <c r="J3">
-        <v>0.3130569481982918</v>
+        <v>0.3167437020391103</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.633284102953147</v>
+        <v>0.781603</v>
       </c>
       <c r="N3">
-        <v>0.633284102953147</v>
+        <v>2.344809</v>
       </c>
       <c r="O3">
-        <v>0.02909292422315033</v>
+        <v>0.007841264784466923</v>
       </c>
       <c r="P3">
-        <v>0.02909292422315033</v>
+        <v>0.007841264784466923</v>
       </c>
       <c r="Q3">
-        <v>51.26197843332177</v>
+        <v>64.74055843333267</v>
       </c>
       <c r="R3">
-        <v>51.26197843332177</v>
+        <v>582.665025899994</v>
       </c>
       <c r="S3">
-        <v>0.009107742071463603</v>
+        <v>0.002483671236500959</v>
       </c>
       <c r="T3">
-        <v>0.009107742071463603</v>
+        <v>0.00248367123650096</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>80.9462580763919</v>
+        <v>82.83048866666665</v>
       </c>
       <c r="H4">
-        <v>80.9462580763919</v>
+        <v>248.491466</v>
       </c>
       <c r="I4">
-        <v>0.3130569481982918</v>
+        <v>0.3167437020391103</v>
       </c>
       <c r="J4">
-        <v>0.3130569481982918</v>
+        <v>0.3167437020391103</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.68558555150836</v>
+        <v>1.736688</v>
       </c>
       <c r="N4">
-        <v>1.68558555150836</v>
+        <v>5.210064</v>
       </c>
       <c r="O4">
-        <v>0.07743540773089304</v>
+        <v>0.01742295059768999</v>
       </c>
       <c r="P4">
-        <v>0.07743540773089304</v>
+        <v>0.01742295059768999</v>
       </c>
       <c r="Q4">
-        <v>136.4418430622331</v>
+        <v>143.850715701536</v>
       </c>
       <c r="R4">
-        <v>136.4418430622331</v>
+        <v>1294.656441313824</v>
       </c>
       <c r="S4">
-        <v>0.02424169242672379</v>
+        <v>0.005518609872756857</v>
       </c>
       <c r="T4">
-        <v>0.02424169242672379</v>
+        <v>0.005518609872756858</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>152.03098384029</v>
+        <v>152.851481</v>
       </c>
       <c r="H5">
-        <v>152.03098384029</v>
+        <v>458.554443</v>
       </c>
       <c r="I5">
-        <v>0.5879747497124388</v>
+        <v>0.5845039034954311</v>
       </c>
       <c r="J5">
-        <v>0.5879747497124388</v>
+        <v>0.5845039034954312</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.448763536884</v>
+        <v>97.15988866666665</v>
       </c>
       <c r="N5">
-        <v>19.448763536884</v>
+        <v>291.479666</v>
       </c>
       <c r="O5">
-        <v>0.8934716680459566</v>
+        <v>0.974735784617843</v>
       </c>
       <c r="P5">
-        <v>0.8934716680459566</v>
+        <v>0.9747357846178432</v>
       </c>
       <c r="Q5">
-        <v>2956.814654989633</v>
+        <v>14851.03287649511</v>
       </c>
       <c r="R5">
-        <v>2956.814654989633</v>
+        <v>133659.295888456</v>
       </c>
       <c r="S5">
-        <v>0.5253387803944765</v>
+        <v>0.5697368709858111</v>
       </c>
       <c r="T5">
-        <v>0.5253387803944765</v>
+        <v>0.5697368709858113</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>152.03098384029</v>
+        <v>152.851481</v>
       </c>
       <c r="H6">
-        <v>152.03098384029</v>
+        <v>458.554443</v>
       </c>
       <c r="I6">
-        <v>0.5879747497124388</v>
+        <v>0.5845039034954311</v>
       </c>
       <c r="J6">
-        <v>0.5879747497124388</v>
+        <v>0.5845039034954312</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.633284102953147</v>
+        <v>0.781603</v>
       </c>
       <c r="N6">
-        <v>0.633284102953147</v>
+        <v>2.344809</v>
       </c>
       <c r="O6">
-        <v>0.02909292422315033</v>
+        <v>0.007841264784466923</v>
       </c>
       <c r="P6">
-        <v>0.02909292422315033</v>
+        <v>0.007841264784466923</v>
       </c>
       <c r="Q6">
-        <v>96.27880522238243</v>
+        <v>119.469176104043</v>
       </c>
       <c r="R6">
-        <v>96.27880522238243</v>
+        <v>1075.222584936387</v>
       </c>
       <c r="S6">
-        <v>0.01710590483850976</v>
+        <v>0.004583249874862177</v>
       </c>
       <c r="T6">
-        <v>0.01710590483850976</v>
+        <v>0.004583249874862178</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>152.03098384029</v>
+        <v>152.851481</v>
       </c>
       <c r="H7">
-        <v>152.03098384029</v>
+        <v>458.554443</v>
       </c>
       <c r="I7">
-        <v>0.5879747497124388</v>
+        <v>0.5845039034954311</v>
       </c>
       <c r="J7">
-        <v>0.5879747497124388</v>
+        <v>0.5845039034954312</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.68558555150836</v>
+        <v>1.736688</v>
       </c>
       <c r="N7">
-        <v>1.68558555150836</v>
+        <v>5.210064</v>
       </c>
       <c r="O7">
-        <v>0.07743540773089304</v>
+        <v>0.01742295059768999</v>
       </c>
       <c r="P7">
-        <v>0.07743540773089304</v>
+        <v>0.01742295059768999</v>
       </c>
       <c r="Q7">
-        <v>256.2612297427938</v>
+        <v>265.455332834928</v>
       </c>
       <c r="R7">
-        <v>256.2612297427938</v>
+        <v>2389.097995514352</v>
       </c>
       <c r="S7">
-        <v>0.04553006447945248</v>
+        <v>0.01018378263475785</v>
       </c>
       <c r="T7">
-        <v>0.04553006447945248</v>
+        <v>0.01018378263475786</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>25.5899566146222</v>
+        <v>25.824378</v>
       </c>
       <c r="H8">
-        <v>25.5899566146222</v>
+        <v>77.47313399999999</v>
       </c>
       <c r="I8">
-        <v>0.09896830208926941</v>
+        <v>0.09875239446545848</v>
       </c>
       <c r="J8">
-        <v>0.09896830208926941</v>
+        <v>0.0987523944654585</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.448763536884</v>
+        <v>97.15988866666665</v>
       </c>
       <c r="N8">
-        <v>19.448763536884</v>
+        <v>291.479666</v>
       </c>
       <c r="O8">
-        <v>0.8934716680459566</v>
+        <v>0.974735784617843</v>
       </c>
       <c r="P8">
-        <v>0.8934716680459566</v>
+        <v>0.9747357846178432</v>
       </c>
       <c r="Q8">
-        <v>497.6930151169078</v>
+        <v>2509.093691365915</v>
       </c>
       <c r="R8">
-        <v>497.6930151169078</v>
+        <v>22581.84322229324</v>
       </c>
       <c r="S8">
-        <v>0.08842537395137566</v>
+        <v>0.09625749270217941</v>
       </c>
       <c r="T8">
-        <v>0.08842537395137566</v>
+        <v>0.09625749270217944</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>25.5899566146222</v>
+        <v>25.824378</v>
       </c>
       <c r="H9">
-        <v>25.5899566146222</v>
+        <v>77.47313399999999</v>
       </c>
       <c r="I9">
-        <v>0.09896830208926941</v>
+        <v>0.09875239446545848</v>
       </c>
       <c r="J9">
-        <v>0.09896830208926941</v>
+        <v>0.0987523944654585</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.633284102953147</v>
+        <v>0.781603</v>
       </c>
       <c r="N9">
-        <v>0.633284102953147</v>
+        <v>2.344809</v>
       </c>
       <c r="O9">
-        <v>0.02909292422315033</v>
+        <v>0.007841264784466923</v>
       </c>
       <c r="P9">
-        <v>0.02909292422315033</v>
+        <v>0.007841264784466923</v>
       </c>
       <c r="Q9">
-        <v>16.20571271930097</v>
+        <v>20.184411317934</v>
       </c>
       <c r="R9">
-        <v>16.20571271930097</v>
+        <v>181.659701861406</v>
       </c>
       <c r="S9">
-        <v>0.002879277313176965</v>
+        <v>0.0007743436731037859</v>
       </c>
       <c r="T9">
-        <v>0.002879277313176965</v>
+        <v>0.000774343673103786</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>25.5899566146222</v>
+        <v>25.824378</v>
       </c>
       <c r="H10">
-        <v>25.5899566146222</v>
+        <v>77.47313399999999</v>
       </c>
       <c r="I10">
-        <v>0.09896830208926941</v>
+        <v>0.09875239446545848</v>
       </c>
       <c r="J10">
-        <v>0.09896830208926941</v>
+        <v>0.0987523944654585</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.68558555150836</v>
+        <v>1.736688</v>
       </c>
       <c r="N10">
-        <v>1.68558555150836</v>
+        <v>5.210064</v>
       </c>
       <c r="O10">
-        <v>0.07743540773089304</v>
+        <v>0.01742295059768999</v>
       </c>
       <c r="P10">
-        <v>0.07743540773089304</v>
+        <v>0.01742295059768999</v>
       </c>
       <c r="Q10">
-        <v>43.13406113333296</v>
+        <v>44.84888738006399</v>
       </c>
       <c r="R10">
-        <v>43.13406113333296</v>
+        <v>403.639986420576</v>
       </c>
       <c r="S10">
-        <v>0.00766365082471677</v>
+        <v>0.001720558090175278</v>
       </c>
       <c r="T10">
-        <v>0.00766365082471677</v>
+        <v>0.001720558090175278</v>
       </c>
     </row>
   </sheetData>
